--- a/Images/Style_Function_table_style_rows.xlsx
+++ b/Images/Style_Function_table_style_rows.xlsx
@@ -327,7 +327,7 @@
     </fill>
   </fills>
   <!-- $Insert Borders$ -->
-  <borders count="49">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -336,721 +336,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="{'thick','#FF0000'}">
+      <left style="thick">
         <color rgb="FFFF0000"/>
       </left>
-      <right style="{'thick','#FF0000'}">
+      <right style="thick">
         <color rgb="FFFF0000"/>
       </right>
-      <top style="{'thick','#0000FF'}">
+      <top style="thick">
         <color rgb="FF0000FF"/>
       </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="{'thick','#FF0000'}">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="{'thick','#0000FF'}">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="{'thick','#0000FF'}">
+      <bottom style="thick">
         <color rgb="FF0000FF"/>
       </bottom>
       <diagonal/>
@@ -1060,58 +355,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <!-- $Insert all Styles$ -->
-  <cellXfs count="51">
+  <cellXfs count="4">
     <xf numFmtId="0" borderId="0" fillId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" borderId="0" fillId="2" fontId="1" xfId="0" applyFill="1" applyFont="1"/>
     <xf numFmtId="0" borderId="0" fillId="0" fontId="2" xfId="0" applyFont="1"/>
     <xf numFmtId="0" borderId="1" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="2" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="3" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="4" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="5" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="6" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="7" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="8" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="9" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="10" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="11" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="12" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="13" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="14" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="15" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="16" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="17" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="18" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="19" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="20" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="21" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="22" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="23" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="24" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="25" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="26" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="27" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="28" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="29" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="30" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="31" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="32" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="33" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="34" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="35" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="36" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="37" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="38" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="39" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="40" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="41" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="42" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="43" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="44" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="45" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="46" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="47" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" borderId="48" fillId="3" fontId="0" xfId="0" applyBorder="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1468,125 +716,125 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>8300000</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="3">
         <v>650000</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="3">
         <v>7</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="3">
         <v>1500000</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="3">
         <v>12</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="3">
         <v>620000</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="3">
         <v>43</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="3">
         <v>805000</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="3">
         <v>16</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1667,28 +915,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="3">
         <v>3800000</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Images/Style_Function_table_style_rows.xlsx
+++ b/Images/Style_Function_table_style_rows.xlsx
@@ -854,7 +854,6 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7"/>
       <c r="G7" t="s">
         <v>36</v>
       </c>
@@ -947,14 +946,12 @@
       <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C11"/>
       <c r="D11">
         <v>1800000</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="F11"/>
       <c r="G11" t="s">
         <v>57</v>
       </c>
@@ -969,7 +966,6 @@
       <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12"/>
       <c r="D12">
         <v>8250000</v>
       </c>
@@ -1028,7 +1024,6 @@
       <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="F14"/>
       <c r="G14" t="s">
         <v>74</v>
       </c>
